--- a/Project1/Graphs.xlsx
+++ b/Project1/Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prestonroesslet/Documents/DataStructures/Project1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E0CE265-CF3D-7244-8292-1F97530671D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02468ED7-E6BD-7146-A85B-BB9A7F216C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44440" yWindow="10340" windowWidth="37880" windowHeight="20500" xr2:uid="{01DF8663-BF17-5D4D-85A3-3DAFE6A917D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{01DF8663-BF17-5D4D-85A3-3DAFE6A917D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Find</t>
   </si>
@@ -54,13 +54,25 @@
   <si>
     <t>Array B</t>
   </si>
+  <si>
+    <t>Trial 1</t>
+  </si>
+  <si>
+    <t>Trial 2</t>
+  </si>
+  <si>
+    <t>Trial 3</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -91,13 +103,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,11 +206,11 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$2:$G$3</c:f>
+              <c:f>Sheet1!$O$2:$O$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -207,7 +222,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -218,42 +233,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$7</c:f>
+              <c:f>Sheet1!$K$4:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$7</c:f>
+              <c:f>Sheet1!$O$4:$O$11</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.3E-6</c:v>
+                  <c:v>11.066666666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5000000000000002E-6</c:v>
+                  <c:v>12.266666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7529500000000001E-3</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9794999999999999E-3</c:v>
+                  <c:v>88.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.466666666666669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>358.40000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -261,16 +300,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D48C-1043-B33C-E7506916AF5C}"/>
+              <c16:uniqueId val="{0000000A-D48C-1043-B33C-E7506916AF5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="7"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$2:$H$3</c:f>
+              <c:f>Sheet1!$S$2:$S$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -282,7 +321,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -293,42 +334,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$7</c:f>
+              <c:f>Sheet1!$K$4:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$4:$H$7</c:f>
+              <c:f>Sheet1!$S$4:$S$11</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.3E-6</c:v>
+                  <c:v>11.866666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1E-5</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4999999999999999E-6</c:v>
+                  <c:v>8.0666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2499999999999998E-6</c:v>
+                  <c:v>21.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -336,7 +401,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D48C-1043-B33C-E7506916AF5C}"/>
+              <c16:uniqueId val="{0000000E-D48C-1043-B33C-E7506916AF5C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -534,7 +599,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -728,11 +793,11 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$11:$B$12</c:f>
+              <c:f>Sheet1!$E$14:$E$15</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -744,7 +809,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -755,42 +820,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:f>Sheet1!$A$16:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$B$16</c:f>
+              <c:f>Sheet1!$E$16:$E$23</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.9999999999999999E-6</c:v>
+                  <c:v>25.066666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2E-5</c:v>
+                  <c:v>24.933333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3200000000000001E-5</c:v>
+                  <c:v>29.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3800000000000005E-5</c:v>
+                  <c:v>31.133333333333336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.533333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.20000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,16 +887,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2BEB-0648-834C-44400D237DF3}"/>
+              <c16:uniqueId val="{00000006-2BEB-0648-834C-44400D237DF3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="7"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$11:$C$12</c:f>
+              <c:f>Sheet1!$I$14:$I$15</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -819,7 +908,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -830,42 +921,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:f>Sheet1!$A$16:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$13:$C$16</c:f>
+              <c:f>Sheet1!$I$16:$I$23</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.7999999999999999E-6</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1399999999999998E-5</c:v>
+                  <c:v>18.599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3999999999999998E-6</c:v>
+                  <c:v>10.066666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7000000000000002E-5</c:v>
+                  <c:v>12.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.933333333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.733333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,7 +988,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2BEB-0648-834C-44400D237DF3}"/>
+              <c16:uniqueId val="{0000000A-2BEB-0648-834C-44400D237DF3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1076,7 +1191,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1270,15 +1385,18 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$11:$G$12</c:f>
+              <c:f>Sheet1!$O$14:$O$15</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Array A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1286,7 +1404,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1297,42 +1415,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$13:$F$16</c:f>
+              <c:f>Sheet1!$K$16:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$13:$G$16</c:f>
+              <c:f>Sheet1!$O$16:$O$23</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.6E-6</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3000000000000004E-6</c:v>
+                  <c:v>9.8666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5999999999999998E-6</c:v>
+                  <c:v>8.5333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3000000000000002E-6</c:v>
+                  <c:v>7.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0666666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1340,20 +1482,23 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-94E7-9F41-8ED9-A13A365E6897}"/>
+              <c16:uniqueId val="{00000003-94E7-9F41-8ED9-A13A365E6897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="7"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$11:$H$12</c:f>
+              <c:f>Sheet1!$S$14:$S$15</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Array B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1361,7 +1506,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1372,42 +1519,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$13:$F$16</c:f>
+              <c:f>Sheet1!$K$16:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$13:$H$16</c:f>
+              <c:f>Sheet1!$S$16:$S$23</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.0000000000000001E-6</c:v>
+                  <c:v>25.266666666666669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5999999999999996E-6</c:v>
+                  <c:v>26.733333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.33E-5</c:v>
+                  <c:v>31.253333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6300000000000001E-5</c:v>
+                  <c:v>33.733333333333327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.466666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.466666666666661</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.133333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,7 +1586,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-94E7-9F41-8ED9-A13A365E6897}"/>
+              <c16:uniqueId val="{00000007-94E7-9F41-8ED9-A13A365E6897}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1613,7 +1784,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1807,11 +1978,11 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2:$B$3</c:f>
+              <c:f>Sheet1!$E$2:$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1823,7 +1994,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1834,42 +2005,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$7</c:f>
+              <c:f>Sheet1!$A$4:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:f>Sheet1!$E$4:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7.4000000000000003E-6</c:v>
+                  <c:v>24.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4E-5</c:v>
+                  <c:v>22.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5199999999999999E-5</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2799999999999999E-5</c:v>
+                  <c:v>23.733333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.866666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.866666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.733333333333327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1877,16 +2072,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-83B8-8546-A2C5-78AF9FF1305E}"/>
+              <c16:uniqueId val="{00000003-83B8-8546-A2C5-78AF9FF1305E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="7"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$C$3</c:f>
+              <c:f>Sheet1!$I$2:$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1898,7 +2093,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1909,42 +2106,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$7</c:f>
+              <c:f>Sheet1!$A$4:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$7</c:f>
+              <c:f>Sheet1!$I$4:$I$11</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.06E-5</c:v>
+                  <c:v>34.533333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9000000000000001E-5</c:v>
+                  <c:v>26.533333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9000000000000001E-5</c:v>
+                  <c:v>16.866666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.26E-5</c:v>
+                  <c:v>16.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.266666666666669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.466666666666669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1952,7 +2173,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-83B8-8546-A2C5-78AF9FF1305E}"/>
+              <c16:uniqueId val="{00000007-83B8-8546-A2C5-78AF9FF1305E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2116,7 +2337,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time Elapsed (s)</a:t>
+                  <a:t>Time Elapsed (Clock Ticks)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2150,7 +2371,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4496,16 +4717,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>306917</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>46568</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>138605</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>31268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>296333</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>10584</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>128020</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>194199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4532,16 +4753,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>502709</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>78317</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>426203</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>100542</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>413132</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>153012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4568,16 +4789,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>513291</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>78317</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>528592</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>139522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>132291</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>6351</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>428434</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4604,16 +4825,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>99484</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>568631</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>84183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>89958</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>27517</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>778512</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12215</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4938,247 +5159,1132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872427C0-5AE7-334B-A6E2-18BC4DF775B8}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="P2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>25.8</v>
+      </c>
+      <c r="D4" s="4">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4">
+        <f>SUM(B4:D4)/3</f>
+        <v>24.2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>45</v>
+      </c>
+      <c r="G4" s="4">
+        <v>31.2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>27.4</v>
+      </c>
+      <c r="I4" s="4">
+        <f>SUM(F4:H4)/3</f>
+        <v>34.533333333333331</v>
+      </c>
+      <c r="K4">
+        <v>1000</v>
+      </c>
+      <c r="L4" s="4">
+        <v>10</v>
+      </c>
+      <c r="M4" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="N4" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="O4" s="4">
+        <f>SUM(L4:N4)/3</f>
+        <v>11.066666666666668</v>
+      </c>
+      <c r="P4" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="R4" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="S4" s="4">
+        <f>SUM(P4:R4)/3</f>
+        <v>11.866666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>25.4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>24.8</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:E11" si="0">SUM(B5:D5)/3</f>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="F5" s="4">
+        <v>24.2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="H5" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" ref="I5:I11" si="1">SUM(F5:H5)/3</f>
+        <v>26.533333333333331</v>
+      </c>
+      <c r="K5">
+        <v>2000</v>
+      </c>
+      <c r="L5" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M5" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="N5" s="4">
+        <v>14</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" ref="O5:O11" si="2">SUM(L5:N5)/3</f>
+        <v>12.266666666666666</v>
+      </c>
+      <c r="P5" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="R5" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" ref="S5:S11" si="3">SUM(P5:R5)/3</f>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3000</v>
+      </c>
+      <c r="B6" s="4">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4">
+        <v>25.4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>25.6</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F6" s="4">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4">
+        <v>17</v>
+      </c>
+      <c r="H6" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="1"/>
+        <v>16.866666666666667</v>
+      </c>
+      <c r="K6">
+        <v>3000</v>
+      </c>
+      <c r="L6" s="4">
+        <v>32.4</v>
+      </c>
+      <c r="M6" s="4">
+        <v>32.6</v>
+      </c>
+      <c r="N6" s="4">
+        <v>166</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="P6" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="R6" s="4">
+        <v>8</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="3"/>
+        <v>8.0666666666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4000</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>19.8</v>
+      </c>
+      <c r="D7" s="4">
+        <v>31.2</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>23.733333333333334</v>
+      </c>
+      <c r="F7" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G7" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="1"/>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="K7">
+        <v>4000</v>
+      </c>
+      <c r="L7" s="4">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="M7" s="4">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="N7" s="4">
+        <v>185</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="2"/>
+        <v>88.333333333333329</v>
+      </c>
+      <c r="P7" s="4">
+        <v>23.4</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>20.6</v>
+      </c>
+      <c r="R7" s="4">
+        <v>21</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="3"/>
+        <v>21.666666666666668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5000</v>
+      </c>
+      <c r="B8" s="4">
+        <v>49</v>
+      </c>
+      <c r="C8" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D8" s="4">
+        <v>33.4</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>38.866666666666667</v>
+      </c>
+      <c r="F8" s="4">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="G8" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="1"/>
+        <v>22.266666666666669</v>
+      </c>
+      <c r="K8">
+        <v>5000</v>
+      </c>
+      <c r="L8" s="4">
+        <v>46.2</v>
+      </c>
+      <c r="M8" s="4">
+        <v>50.8</v>
+      </c>
+      <c r="N8" s="4">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="2"/>
+        <v>75.266666666666666</v>
+      </c>
+      <c r="P8" s="4">
+        <v>19.8</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="R8" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="S8" s="4">
+        <f t="shared" si="3"/>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6000</v>
+      </c>
+      <c r="B9" s="4">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="C9" s="4">
+        <v>39.6</v>
+      </c>
+      <c r="D9" s="4">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>37.133333333333333</v>
+      </c>
+      <c r="F9" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="G9" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="H9" s="4">
+        <v>16</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="1"/>
+        <v>15.666666666666666</v>
+      </c>
+      <c r="K9">
+        <v>6000</v>
+      </c>
+      <c r="L9" s="4">
+        <v>23.4</v>
+      </c>
+      <c r="M9" s="4">
+        <v>301.8</v>
+      </c>
+      <c r="N9" s="4">
+        <v>192</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="2"/>
+        <v>172.4</v>
+      </c>
+      <c r="P9" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>17.8</v>
+      </c>
+      <c r="R9" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="3"/>
+        <v>16.266666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7000</v>
+      </c>
+      <c r="B10" s="4">
+        <v>39.4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D10" s="4">
+        <v>38.4</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>38.866666666666667</v>
+      </c>
+      <c r="F10" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="G10" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="H10" s="4">
+        <v>16</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="1"/>
+        <v>21.466666666666669</v>
+      </c>
+      <c r="K10">
+        <v>7000</v>
+      </c>
+      <c r="L10" s="4">
+        <v>50.6</v>
+      </c>
+      <c r="M10" s="4">
+        <v>51.2</v>
+      </c>
+      <c r="N10" s="4">
+        <v>25.6</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="2"/>
+        <v>42.466666666666669</v>
+      </c>
+      <c r="P10" s="4">
+        <v>15.8</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="R10" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="3"/>
+        <v>15.600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8000</v>
+      </c>
+      <c r="B11" s="4">
+        <v>52.8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44.4</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>50.733333333333327</v>
+      </c>
+      <c r="F11" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="G11" s="4">
+        <v>15.8</v>
+      </c>
+      <c r="H11" s="4">
+        <v>15.8</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="1"/>
+        <v>15.666666666666666</v>
+      </c>
+      <c r="K11">
+        <v>8000</v>
+      </c>
+      <c r="L11" s="4">
+        <v>980.8</v>
+      </c>
+      <c r="M11" s="4">
+        <v>28</v>
+      </c>
+      <c r="N11" s="4">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="2"/>
+        <v>358.40000000000003</v>
+      </c>
+      <c r="P11" s="4">
+        <v>29.6</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>19</v>
+      </c>
+      <c r="R11" s="4">
+        <v>29.4</v>
+      </c>
+      <c r="S11" s="4">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="K13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="P14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16" s="4">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4">
+        <v>25.4</v>
+      </c>
+      <c r="D16" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="E16" s="4">
+        <f>SUM(B16:D16)/3</f>
+        <v>25.066666666666666</v>
+      </c>
+      <c r="F16" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>19.2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>21.2</v>
+      </c>
+      <c r="I16" s="4">
+        <f>SUM(F16:H16)/3</f>
+        <v>19.2</v>
+      </c>
+      <c r="K16">
+        <v>1000</v>
+      </c>
+      <c r="L16" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="M16" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="N16" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="O16" s="4">
+        <f>SUM(L16:N16)/3</f>
+        <v>13</v>
+      </c>
+      <c r="P16" s="4">
+        <v>22.4</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="R16" s="4">
+        <v>26.6</v>
+      </c>
+      <c r="S16" s="4">
+        <f>SUM(P16:R16)/3</f>
+        <v>25.266666666666669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2000</v>
+      </c>
+      <c r="B17" s="4">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4">
+        <v>25.6</v>
+      </c>
+      <c r="D17" s="4">
+        <v>30.2</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" ref="E17:E23" si="4">SUM(B17:D17)/3</f>
+        <v>24.933333333333334</v>
+      </c>
+      <c r="F17" s="4">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="H17" s="4">
         <v>20</v>
       </c>
-      <c r="B4" s="3">
-        <v>7.4000000000000003E-6</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.06E-5</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2.3E-6</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2.3E-6</v>
+      <c r="I17" s="4">
+        <f t="shared" ref="I17:I23" si="5">SUM(F17:H17)/3</f>
+        <v>18.599999999999998</v>
+      </c>
+      <c r="K17">
+        <v>2000</v>
+      </c>
+      <c r="L17" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="M17" s="4">
+        <v>10</v>
+      </c>
+      <c r="N17" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" ref="O17:O23" si="6">SUM(L17:N17)/3</f>
+        <v>9.8666666666666671</v>
+      </c>
+      <c r="P17" s="4">
+        <v>21.2</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="R17" s="4">
+        <v>31.8</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" ref="S17:S23" si="7">SUM(P17:R17)/3</f>
+        <v>26.733333333333334</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>200</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1.4E-5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="F5">
-        <v>200</v>
-      </c>
-      <c r="G5" s="3">
-        <v>7.5000000000000002E-6</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1.1E-5</v>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3000</v>
+      </c>
+      <c r="B18" s="4">
+        <v>30.4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>29</v>
+      </c>
+      <c r="D18" s="4">
+        <v>29.6</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="4"/>
+        <v>29.666666666666668</v>
+      </c>
+      <c r="F18" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G18" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H18" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="5"/>
+        <v>10.066666666666666</v>
+      </c>
+      <c r="K18">
+        <v>3000</v>
+      </c>
+      <c r="L18" s="4">
+        <v>8</v>
+      </c>
+      <c r="M18" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N18" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="6"/>
+        <v>8.5333333333333332</v>
+      </c>
+      <c r="P18" s="4">
+        <v>30.16</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>31.8</v>
+      </c>
+      <c r="R18" s="4">
+        <v>31.8</v>
+      </c>
+      <c r="S18" s="4">
+        <f t="shared" si="7"/>
+        <v>31.253333333333334</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2000</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2.5199999999999999E-5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.9000000000000001E-5</v>
-      </c>
-      <c r="F6">
-        <v>2000</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3.7529500000000001E-3</v>
-      </c>
-      <c r="H6" s="3">
-        <v>5.4999999999999999E-6</v>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4000</v>
+      </c>
+      <c r="B19" s="4">
+        <v>31.2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="D19" s="4">
+        <v>31.6</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="4"/>
+        <v>31.133333333333336</v>
+      </c>
+      <c r="F19" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="G19" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="H19" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="5"/>
+        <v>12.266666666666666</v>
+      </c>
+      <c r="K19">
+        <v>4000</v>
+      </c>
+      <c r="L19" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="M19" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="N19" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="6"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="P19" s="4">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>33.4</v>
+      </c>
+      <c r="R19" s="4">
+        <v>34</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="7"/>
+        <v>33.733333333333327</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>20000</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1.2799999999999999E-5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.26E-5</v>
-      </c>
-      <c r="F7">
-        <v>20000</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2.9794999999999999E-3</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3.2499999999999998E-6</v>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5000</v>
+      </c>
+      <c r="B20" s="4">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4">
+        <v>28.6</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="4"/>
+        <v>35.199999999999996</v>
+      </c>
+      <c r="F20" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G20" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="H20" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="5"/>
+        <v>10.933333333333332</v>
+      </c>
+      <c r="K20">
+        <v>5000</v>
+      </c>
+      <c r="L20" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="M20" s="4">
+        <v>8</v>
+      </c>
+      <c r="N20" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="6"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="P20" s="4">
+        <v>41.6</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>35.6</v>
+      </c>
+      <c r="R20" s="4">
+        <v>41.8</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="7"/>
+        <v>39.666666666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6000</v>
+      </c>
+      <c r="B21" s="4">
+        <v>43.2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>43</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44.4</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="4"/>
+        <v>43.533333333333331</v>
+      </c>
+      <c r="F21" s="4">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H21" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="5"/>
+        <v>15.733333333333334</v>
+      </c>
+      <c r="K21">
+        <v>6000</v>
+      </c>
+      <c r="L21" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="M21" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N21" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="6"/>
+        <v>7.8666666666666663</v>
+      </c>
+      <c r="P21" s="4">
+        <v>45</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>49.4</v>
+      </c>
+      <c r="R21" s="4">
+        <v>48</v>
+      </c>
+      <c r="S21" s="4">
+        <f t="shared" si="7"/>
+        <v>47.466666666666669</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7000</v>
+      </c>
+      <c r="B22" s="4">
+        <v>51.2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>51.2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>48.2</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="4"/>
+        <v>50.20000000000001</v>
+      </c>
+      <c r="F22" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G22" s="4">
+        <v>11</v>
+      </c>
+      <c r="H22" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="5"/>
+        <v>13.133333333333333</v>
+      </c>
+      <c r="K22">
+        <v>7000</v>
+      </c>
+      <c r="L22" s="4">
+        <v>8</v>
+      </c>
+      <c r="M22" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="N22" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="P22" s="4">
+        <v>52.8</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>51.4</v>
+      </c>
+      <c r="R22" s="4">
+        <v>53.2</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="7"/>
+        <v>52.466666666666661</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1.7999999999999999E-6</v>
-      </c>
-      <c r="F13">
-        <v>20</v>
-      </c>
-      <c r="G13" s="3">
-        <v>4.6E-6</v>
-      </c>
-      <c r="H13" s="3">
-        <v>3.0000000000000001E-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>200</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1.2E-5</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2.1399999999999998E-5</v>
-      </c>
-      <c r="F14">
-        <v>200</v>
-      </c>
-      <c r="G14" s="3">
-        <v>7.3000000000000004E-6</v>
-      </c>
-      <c r="H14" s="3">
-        <v>9.5999999999999996E-6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2000</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2.3200000000000001E-5</v>
-      </c>
-      <c r="C15" s="3">
-        <v>9.3999999999999998E-6</v>
-      </c>
-      <c r="F15">
-        <v>2000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3.5999999999999998E-6</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1.33E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>20000</v>
-      </c>
-      <c r="B16" s="3">
-        <v>7.3800000000000005E-5</v>
-      </c>
-      <c r="C16" s="3">
-        <v>6.7000000000000002E-5</v>
-      </c>
-      <c r="F16">
-        <v>20000</v>
-      </c>
-      <c r="G16" s="3">
-        <v>3.3000000000000002E-6</v>
-      </c>
-      <c r="H16" s="3">
-        <v>4.6300000000000001E-5</v>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8000</v>
+      </c>
+      <c r="B23" s="4">
+        <v>52.4</v>
+      </c>
+      <c r="C23" s="4">
+        <v>56.2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>56.4</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="F23" s="4">
+        <v>29</v>
+      </c>
+      <c r="G23" s="4">
+        <v>22.8</v>
+      </c>
+      <c r="H23" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="K23">
+        <v>8000</v>
+      </c>
+      <c r="L23" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M23" s="4">
+        <v>8</v>
+      </c>
+      <c r="N23" s="4">
+        <v>8</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="6"/>
+        <v>8.0666666666666664</v>
+      </c>
+      <c r="P23" s="4">
+        <v>58.6</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>56.2</v>
+      </c>
+      <c r="R23" s="4">
+        <v>62.6</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="7"/>
+        <v>59.133333333333333</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Project1/Graphs.xlsx
+++ b/Project1/Graphs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prestonroesslet/Documents/DataStructures/Project1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02468ED7-E6BD-7146-A85B-BB9A7F216C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E84C21-32A7-B949-B6B1-B600B7A45BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{01DF8663-BF17-5D4D-85A3-3DAFE6A917D8}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{01DF8663-BF17-5D4D-85A3-3DAFE6A917D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -103,16 +103,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,7 +564,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time Elapsed (s)</a:t>
+                  <a:t>Time Elapsed Clock</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Ticks)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1156,7 +1163,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Elapsed (s)</a:t>
+                  <a:t> Elapsed (Clock Ticks)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1750,8 +1757,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time Elapsed (s)</a:t>
+                  <a:t>Time Elapsed (Clock</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Ticks)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5161,8 +5173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872427C0-5AE7-334B-A6E2-18BC4DF775B8}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="87" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5173,123 +5185,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="L2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
       <c r="P2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1000</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>20.8</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>25.8</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>26</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <f>SUM(B4:D4)/3</f>
         <v>24.2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>45</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>31.2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <v>27.4</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <f>SUM(F4:H4)/3</f>
         <v>34.533333333333331</v>
       </c>
       <c r="K4">
         <v>1000</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="2">
         <v>10</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="2">
         <v>11.6</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="2">
         <v>11.6</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="2">
         <f>SUM(L4:N4)/3</f>
         <v>11.066666666666668</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="2">
         <v>10.4</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="2">
         <v>12.4</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="2">
         <v>12.8</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="2">
         <f>SUM(P4:R4)/3</f>
         <v>11.866666666666667</v>
       </c>
@@ -5298,58 +5281,58 @@
       <c r="A5">
         <v>2000</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>16.8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>25.4</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>24.8</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <f t="shared" ref="E5:E11" si="0">SUM(B5:D5)/3</f>
         <v>22.333333333333332</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>24.2</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>32.799999999999997</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>22.6</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <f t="shared" ref="I5:I11" si="1">SUM(F5:H5)/3</f>
         <v>26.533333333333331</v>
       </c>
       <c r="K5">
         <v>2000</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="2">
         <v>13.6</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="2">
         <v>14</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="2">
         <f t="shared" ref="O5:O11" si="2">SUM(L5:N5)/3</f>
         <v>12.266666666666666</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="2">
         <v>6.4</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="2">
         <f t="shared" ref="S5:S11" si="3">SUM(P5:R5)/3</f>
         <v>8.8000000000000007</v>
       </c>
@@ -5358,58 +5341,58 @@
       <c r="A6">
         <v>3000</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>24</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>25.4</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>25.6</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>16</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>17</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <f t="shared" si="1"/>
         <v>16.866666666666667</v>
       </c>
       <c r="K6">
         <v>3000</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="2">
         <v>32.4</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="2">
         <v>32.6</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="2">
         <v>166</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="2">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="2">
         <v>8</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="2">
         <v>8</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="2">
         <f t="shared" si="3"/>
         <v>8.0666666666666664</v>
       </c>
@@ -5418,58 +5401,58 @@
       <c r="A7">
         <v>4000</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>20.2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>19.8</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>31.2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>23.733333333333334</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>17.399999999999999</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>18.2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>14.8</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <f t="shared" si="1"/>
         <v>16.799999999999997</v>
       </c>
       <c r="K7">
         <v>4000</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="2">
         <v>40.200000000000003</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="2">
         <v>39.799999999999997</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="2">
         <v>185</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="2">
         <f t="shared" si="2"/>
         <v>88.333333333333329</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="2">
         <v>23.4</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="2">
         <v>20.6</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="2">
         <v>21</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="2">
         <f t="shared" si="3"/>
         <v>21.666666666666668</v>
       </c>
@@ -5478,58 +5461,58 @@
       <c r="A8">
         <v>5000</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>49</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>34.200000000000003</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>33.4</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>38.866666666666667</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>38.200000000000003</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>15.2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <v>13.4</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <f t="shared" si="1"/>
         <v>22.266666666666669</v>
       </c>
       <c r="K8">
         <v>5000</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="2">
         <v>46.2</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="2">
         <v>50.8</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="2">
         <v>128.80000000000001</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="2">
         <f t="shared" si="2"/>
         <v>75.266666666666666</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="2">
         <v>19.8</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="2">
         <v>16.2</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="2">
         <f t="shared" si="3"/>
         <v>15.4</v>
       </c>
@@ -5538,58 +5521,58 @@
       <c r="A9">
         <v>6000</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>33.799999999999997</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>39.6</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>38</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>37.133333333333333</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>15.6</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>15.4</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="2">
         <v>16</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <f t="shared" si="1"/>
         <v>15.666666666666666</v>
       </c>
       <c r="K9">
         <v>6000</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="2">
         <v>23.4</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="2">
         <v>301.8</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="2">
         <v>192</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="2">
         <f t="shared" si="2"/>
         <v>172.4</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="2">
         <v>12.2</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="2">
         <v>17.8</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="2">
         <v>18.8</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="2">
         <f t="shared" si="3"/>
         <v>16.266666666666666</v>
       </c>
@@ -5598,58 +5581,58 @@
       <c r="A10">
         <v>7000</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>39.4</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>38.799999999999997</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>38.4</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>38.866666666666667</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>20.8</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <v>27.6</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="2">
         <v>16</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="2">
         <f t="shared" si="1"/>
         <v>21.466666666666669</v>
       </c>
       <c r="K10">
         <v>7000</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="2">
         <v>50.6</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="2">
         <v>51.2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="2">
         <v>25.6</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="2">
         <f t="shared" si="2"/>
         <v>42.466666666666669</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="2">
         <v>15.8</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="2">
         <v>15.4</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="2">
         <v>15.6</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="2">
         <f t="shared" si="3"/>
         <v>15.600000000000001</v>
       </c>
@@ -5658,91 +5641,91 @@
       <c r="A11">
         <v>8000</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>52.8</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>55</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>44.4</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>50.733333333333327</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>15.4</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>15.8</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <v>15.8</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <f t="shared" si="1"/>
         <v>15.666666666666666</v>
       </c>
       <c r="K11">
         <v>8000</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <v>980.8</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="2">
         <v>28</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="2">
         <v>66.400000000000006</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="2">
         <f t="shared" si="2"/>
         <v>358.40000000000003</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="2">
         <v>29.6</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="2">
         <v>19</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="2">
         <v>29.4</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="2">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="1"/>
@@ -5765,37 +5748,28 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3" t="s">
+      <c r="L15" t="s">
         <v>6</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" t="s">
         <v>9</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" t="s">
         <v>6</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="S15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5803,58 +5777,58 @@
       <c r="A16">
         <v>1000</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>23</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>25.4</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>26.8</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <f>SUM(B16:D16)/3</f>
         <v>25.066666666666666</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>17.2</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <v>19.2</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="2">
         <v>21.2</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="2">
         <f>SUM(F16:H16)/3</f>
         <v>19.2</v>
       </c>
       <c r="K16">
         <v>1000</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="2">
         <v>11.6</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="2">
         <v>13.6</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="2">
         <v>13.8</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="2">
         <f>SUM(L16:N16)/3</f>
         <v>13</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="2">
         <v>22.4</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="2">
         <v>26.8</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="2">
         <v>26.6</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="2">
         <f>SUM(P16:R16)/3</f>
         <v>25.266666666666669</v>
       </c>
@@ -5863,58 +5837,58 @@
       <c r="A17">
         <v>2000</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>19</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>25.6</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>30.2</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <f t="shared" ref="E17:E23" si="4">SUM(B17:D17)/3</f>
         <v>24.933333333333334</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>14</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="2">
         <v>21.8</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="2">
         <v>20</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="2">
         <f t="shared" ref="I17:I23" si="5">SUM(F17:H17)/3</f>
         <v>18.599999999999998</v>
       </c>
       <c r="K17">
         <v>2000</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="2">
         <v>7.8</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="2">
         <v>10</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="2">
         <v>11.8</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="2">
         <f t="shared" ref="O17:O23" si="6">SUM(L17:N17)/3</f>
         <v>9.8666666666666671</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="2">
         <v>21.2</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="2">
         <v>27.2</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="2">
         <v>31.8</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="2">
         <f t="shared" ref="S17:S23" si="7">SUM(P17:R17)/3</f>
         <v>26.733333333333334</v>
       </c>
@@ -5923,58 +5897,58 @@
       <c r="A18">
         <v>3000</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>30.4</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>29</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>29.6</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <f t="shared" si="4"/>
         <v>29.666666666666668</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="2">
         <f t="shared" si="5"/>
         <v>10.066666666666666</v>
       </c>
       <c r="K18">
         <v>3000</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="2">
         <v>8</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="2">
         <v>8.4</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="2">
         <f t="shared" si="6"/>
         <v>8.5333333333333332</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="2">
         <v>30.16</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="2">
         <v>31.8</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="2">
         <v>31.8</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="2">
         <f t="shared" si="7"/>
         <v>31.253333333333334</v>
       </c>
@@ -5983,58 +5957,58 @@
       <c r="A19">
         <v>4000</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>31.2</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>30.6</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>31.6</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <f t="shared" si="4"/>
         <v>31.133333333333336</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>11.6</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="2">
         <v>10.6</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="2">
         <v>14.6</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="2">
         <f t="shared" si="5"/>
         <v>12.266666666666666</v>
       </c>
       <c r="K19">
         <v>4000</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="2">
         <v>7.4</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="2">
         <v>7.4</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="2">
         <f t="shared" si="6"/>
         <v>7.666666666666667</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="2">
         <v>33.799999999999997</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="2">
         <v>33.4</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="2">
         <v>34</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="2">
         <f t="shared" si="7"/>
         <v>33.733333333333327</v>
       </c>
@@ -6043,58 +6017,58 @@
       <c r="A20">
         <v>5000</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>38</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>39</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>28.6</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <f t="shared" si="4"/>
         <v>35.199999999999996</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="2">
         <v>12.4</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="2">
         <v>12.2</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="2">
         <f t="shared" si="5"/>
         <v>10.933333333333332</v>
       </c>
       <c r="K20">
         <v>5000</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="2">
         <v>7.6</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="2">
         <v>8</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="2">
         <v>7.4</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="2">
         <f t="shared" si="6"/>
         <v>7.666666666666667</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="2">
         <v>41.6</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="2">
         <v>35.6</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20" s="2">
         <v>41.8</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20" s="2">
         <f t="shared" si="7"/>
         <v>39.666666666666664</v>
       </c>
@@ -6103,58 +6077,58 @@
       <c r="A21">
         <v>6000</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>43.2</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>43</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>44.4</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <f t="shared" si="4"/>
         <v>43.533333333333331</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>18</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="2">
         <v>19.399999999999999</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="2">
         <f t="shared" si="5"/>
         <v>15.733333333333334</v>
       </c>
       <c r="K21">
         <v>6000</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="2">
         <v>7.6</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="2">
         <v>7.8</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="2">
         <f t="shared" si="6"/>
         <v>7.8666666666666663</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="2">
         <v>45</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="2">
         <v>49.4</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="2">
         <v>48</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="2">
         <f t="shared" si="7"/>
         <v>47.466666666666669</v>
       </c>
@@ -6163,58 +6137,58 @@
       <c r="A22">
         <v>7000</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>51.2</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>51.2</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>48.2</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <f t="shared" si="4"/>
         <v>50.20000000000001</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="2">
         <v>11</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="2">
         <v>18.2</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="2">
         <f t="shared" si="5"/>
         <v>13.133333333333333</v>
       </c>
       <c r="K22">
         <v>7000</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="2">
         <v>8</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="2">
         <v>8.4</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="2">
         <v>7.6</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="2">
         <v>52.8</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="2">
         <v>51.4</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="2">
         <v>53.2</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="2">
         <f t="shared" si="7"/>
         <v>52.466666666666661</v>
       </c>
@@ -6223,58 +6197,58 @@
       <c r="A23">
         <v>8000</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>52.4</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>56.2</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>56.4</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>29</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="2">
         <v>22.8</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="2">
         <v>14.2</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="2">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="K23">
         <v>8000</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="2">
         <v>8</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="2">
         <v>8</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="2">
         <f t="shared" si="6"/>
         <v>8.0666666666666664</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="2">
         <v>58.6</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="2">
         <v>56.2</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="2">
         <v>62.6</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="2">
         <f t="shared" si="7"/>
         <v>59.133333333333333</v>
       </c>
